--- a/scripts/ESO-2.2m/schedules/P107/schedule-ESO-2.2m-P107.xlsx
+++ b/scripts/ESO-2.2m/schedules/P107/schedule-ESO-2.2m-P107.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Unique sheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="progs" vbProcedure="false">#REF!</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="33">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Alejandra Melo</t>
   </si>
   <si>
-    <t xml:space="preserve">GROND ToO/QSO</t>
+    <t xml:space="preserve">GROND ToO, QSO</t>
   </si>
   <si>
     <t xml:space="preserve">MPE</t>
@@ -100,19 +100,25 @@
     <t xml:space="preserve">Zakhozhay</t>
   </si>
   <si>
-    <t xml:space="preserve">Régis</t>
+    <t xml:space="preserve">Régis, Maren</t>
   </si>
   <si>
-    <t xml:space="preserve">Angela</t>
+    <t xml:space="preserve">Angela, Paul</t>
   </si>
   <si>
     <t xml:space="preserve">Bañados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul, Angela</t>
   </si>
   <si>
     <t xml:space="preserve">Quirola</t>
   </si>
   <si>
     <t xml:space="preserve">Gieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Régis, Sam</t>
   </si>
   <si>
     <t xml:space="preserve">Schlecker</t>
@@ -370,14 +376,14 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2:H6"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I177" activeCellId="0" sqref="I177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.04"/>
@@ -1507,7 +1513,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="n">
+      <c r="A80" s="4" t="n">
         <f aca="false">A79+1</f>
         <v>44365</v>
       </c>
@@ -2444,9 +2450,6 @@
       <c r="D132" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F132" s="7" t="s">
         <v>11</v>
       </c>
@@ -2465,9 +2468,6 @@
       <c r="D133" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E133" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F133" s="7" t="s">
         <v>11</v>
       </c>
@@ -2486,9 +2486,6 @@
       <c r="D134" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E134" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F134" s="7" t="s">
         <v>11</v>
       </c>
@@ -2507,9 +2504,6 @@
       <c r="D135" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E135" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F135" s="7" t="s">
         <v>11</v>
       </c>
@@ -2528,9 +2522,6 @@
       <c r="D136" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E136" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F136" s="7" t="s">
         <v>11</v>
       </c>
@@ -2549,9 +2540,6 @@
       <c r="D137" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E137" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F137" s="7" t="s">
         <v>11</v>
       </c>
@@ -2570,9 +2558,6 @@
       <c r="D138" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E138" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F138" s="7" t="s">
         <v>11</v>
       </c>
@@ -2591,9 +2576,6 @@
       <c r="D139" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E139" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F139" s="7" t="s">
         <v>11</v>
       </c>
@@ -2612,9 +2594,6 @@
       <c r="D140" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F140" s="7" t="s">
         <v>11</v>
       </c>
@@ -2633,9 +2612,6 @@
       <c r="D141" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E141" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F141" s="7" t="s">
         <v>11</v>
       </c>
@@ -2654,9 +2630,6 @@
       <c r="D142" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E142" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F142" s="7" t="s">
         <v>11</v>
       </c>
@@ -2673,9 +2646,6 @@
         <v>8</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F143" s="7" t="s">
@@ -2694,9 +2664,6 @@
         <v>8</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F144" s="7" t="s">
@@ -2715,9 +2682,6 @@
         <v>8</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F145" s="7" t="s">
@@ -2736,9 +2700,6 @@
         <v>8</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F146" s="7" t="s">
@@ -2757,9 +2718,6 @@
         <v>8</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F147" s="7" t="s">
@@ -2778,9 +2736,6 @@
         <v>8</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F148" s="7" t="s">
@@ -2799,9 +2754,6 @@
         <v>8</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F149" s="7" t="s">
@@ -2820,9 +2772,6 @@
         <v>8</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F150" s="7" t="s">
@@ -2841,9 +2790,6 @@
         <v>8</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F151" s="7" t="s">
@@ -2862,9 +2808,6 @@
         <v>8</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F152" s="7" t="s">
@@ -2885,9 +2828,6 @@
       <c r="D153" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E153" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F153" s="7" t="s">
         <v>11</v>
       </c>
@@ -2906,9 +2846,6 @@
       <c r="D154" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E154" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F154" s="7" t="s">
         <v>11</v>
       </c>
@@ -2927,9 +2864,6 @@
       <c r="D155" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E155" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F155" s="7" t="s">
         <v>11</v>
       </c>
@@ -2948,9 +2882,6 @@
       <c r="D156" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E156" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F156" s="7" t="s">
         <v>11</v>
       </c>
@@ -2969,9 +2900,6 @@
       <c r="D157" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E157" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F157" s="7" t="s">
         <v>11</v>
       </c>
@@ -2990,9 +2918,6 @@
       <c r="D158" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E158" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F158" s="7" t="s">
         <v>11</v>
       </c>
@@ -3011,9 +2936,6 @@
       <c r="D159" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F159" s="7" t="s">
         <v>11</v>
       </c>
@@ -3032,9 +2954,6 @@
       <c r="D160" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E160" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F160" s="7" t="s">
         <v>11</v>
       </c>
@@ -3053,9 +2972,6 @@
       <c r="D161" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F161" s="7" t="s">
         <v>11</v>
       </c>
@@ -3074,9 +2990,6 @@
       <c r="D162" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E162" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F162" s="7" t="s">
         <v>11</v>
       </c>
@@ -3095,9 +3008,6 @@
       <c r="D163" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E163" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F163" s="7" t="s">
         <v>11</v>
       </c>
@@ -3114,10 +3024,7 @@
         <v>27</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>11</v>
@@ -3135,10 +3042,7 @@
         <v>27</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>11</v>
@@ -3156,10 +3060,7 @@
         <v>27</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>11</v>
@@ -3177,10 +3078,7 @@
         <v>27</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>11</v>
@@ -3198,10 +3096,7 @@
         <v>27</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>11</v>
@@ -3219,10 +3114,7 @@
         <v>27</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>11</v>
@@ -3237,14 +3129,12 @@
         <v>15</v>
       </c>
       <c r="C170" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E170" s="10"/>
       <c r="F170" s="7" t="s">
         <v>11</v>
       </c>
@@ -3258,14 +3148,12 @@
         <v>15</v>
       </c>
       <c r="C171" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E171" s="10"/>
       <c r="F171" s="7" t="s">
         <v>11</v>
       </c>
@@ -3279,14 +3167,12 @@
         <v>15</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E172" s="10"/>
       <c r="F172" s="7" t="s">
         <v>11</v>
       </c>
@@ -3300,14 +3186,12 @@
         <v>15</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E173" s="10"/>
       <c r="F173" s="7" t="s">
         <v>11</v>
       </c>
@@ -3321,14 +3205,12 @@
         <v>15</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E174" s="10"/>
       <c r="F174" s="7" t="s">
         <v>11</v>
       </c>
@@ -3342,14 +3224,12 @@
         <v>15</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E175" s="10"/>
       <c r="F175" s="7" t="s">
         <v>11</v>
       </c>
@@ -3363,13 +3243,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E176" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>11</v>
@@ -3384,13 +3261,10 @@
         <v>7</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>11</v>
@@ -3405,13 +3279,10 @@
         <v>7</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>11</v>
@@ -3426,13 +3297,10 @@
         <v>7</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>11</v>
@@ -3447,13 +3315,10 @@
         <v>7</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>11</v>
@@ -3468,13 +3333,10 @@
         <v>7</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E181" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>11</v>
@@ -3489,13 +3351,10 @@
         <v>7</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E182" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>11</v>
@@ -3510,13 +3369,10 @@
         <v>7</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>11</v>
@@ -3531,13 +3387,10 @@
         <v>7</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>11</v>

--- a/scripts/ESO-2.2m/schedules/P107/schedule-ESO-2.2m-P107.xlsx
+++ b/scripts/ESO-2.2m/schedules/P107/schedule-ESO-2.2m-P107.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="34">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDT</t>
   </si>
   <si>
     <t xml:space="preserve">Lockdown</t>
@@ -373,22 +376,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I177" activeCellId="0" sqref="I177"/>
+      <selection pane="bottomRight" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="21.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,13 +414,16 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>44287</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -429,7 +436,7 @@
         <v>44288</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -442,7 +449,7 @@
         <v>44289</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -455,7 +462,7 @@
         <v>44290</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -468,7 +475,7 @@
         <v>44291</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -481,7 +488,7 @@
         <v>44292</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -494,7 +501,7 @@
         <v>44293</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -507,7 +514,7 @@
         <v>44294</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -520,7 +527,7 @@
         <v>44295</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -533,7 +540,7 @@
         <v>44296</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -546,7 +553,7 @@
         <v>44297</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -559,7 +566,7 @@
         <v>44298</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -572,7 +579,7 @@
         <v>44299</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -585,7 +592,7 @@
         <v>44300</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -598,7 +605,7 @@
         <v>44301</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -611,7 +618,7 @@
         <v>44302</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -624,7 +631,7 @@
         <v>44303</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -637,7 +644,7 @@
         <v>44304</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -650,7 +657,7 @@
         <v>44305</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -663,7 +670,7 @@
         <v>44306</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -676,7 +683,7 @@
         <v>44307</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -689,7 +696,7 @@
         <v>44308</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -702,7 +709,7 @@
         <v>44309</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -715,7 +722,7 @@
         <v>44310</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -728,7 +735,7 @@
         <v>44311</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -741,7 +748,7 @@
         <v>44312</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -754,7 +761,7 @@
         <v>44313</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -767,7 +774,7 @@
         <v>44314</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -780,7 +787,7 @@
         <v>44315</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -793,7 +800,7 @@
         <v>44316</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -806,7 +813,7 @@
         <v>44317</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -819,7 +826,7 @@
         <v>44318</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -832,7 +839,7 @@
         <v>44319</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -845,7 +852,7 @@
         <v>44320</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -858,7 +865,7 @@
         <v>44321</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -871,7 +878,7 @@
         <v>44322</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -884,7 +891,7 @@
         <v>44323</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -897,7 +904,7 @@
         <v>44324</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -910,7 +917,7 @@
         <v>44325</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -923,7 +930,7 @@
         <v>44326</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -936,7 +943,7 @@
         <v>44327</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -949,7 +956,7 @@
         <v>44328</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -962,7 +969,7 @@
         <v>44329</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -975,7 +982,7 @@
         <v>44330</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -988,7 +995,7 @@
         <v>44331</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1001,7 +1008,7 @@
         <v>44332</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1014,7 +1021,7 @@
         <v>44333</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1027,7 +1034,7 @@
         <v>44334</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1040,7 +1047,7 @@
         <v>44335</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1053,7 +1060,7 @@
         <v>44336</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1066,7 +1073,7 @@
         <v>44337</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1079,7 +1086,7 @@
         <v>44338</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1092,7 +1099,7 @@
         <v>44339</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1105,7 +1112,7 @@
         <v>44340</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1118,7 +1125,7 @@
         <v>44341</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1131,7 +1138,7 @@
         <v>44342</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -1144,7 +1151,7 @@
         <v>44343</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -1157,7 +1164,7 @@
         <v>44344</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -1170,7 +1177,7 @@
         <v>44345</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -1183,7 +1190,7 @@
         <v>44346</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -1196,7 +1203,7 @@
         <v>44347</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -1209,7 +1216,7 @@
         <v>44348</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -1222,7 +1229,7 @@
         <v>44349</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -1235,7 +1242,7 @@
         <v>44350</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -1248,7 +1255,7 @@
         <v>44351</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -1261,7 +1268,7 @@
         <v>44352</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -1274,7 +1281,7 @@
         <v>44353</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1287,19 +1294,19 @@
         <v>44354</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,19 +1315,19 @@
         <v>44355</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,19 +1336,19 @@
         <v>44356</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,19 +1357,19 @@
         <v>44357</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,19 +1378,19 @@
         <v>44358</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,19 +1399,19 @@
         <v>44359</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,19 +1420,19 @@
         <v>44360</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,19 +1441,19 @@
         <v>44361</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,19 +1462,19 @@
         <v>44362</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,19 +1483,19 @@
         <v>44363</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,19 +1504,19 @@
         <v>44364</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,7 +1525,7 @@
         <v>44365</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -1531,7 +1538,7 @@
         <v>44366</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -1544,7 +1551,7 @@
         <v>44367</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -1557,7 +1564,7 @@
         <v>44368</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -1570,7 +1577,7 @@
         <v>44369</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -1583,7 +1590,7 @@
         <v>44370</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -1596,7 +1603,7 @@
         <v>44371</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -1609,7 +1616,7 @@
         <v>44372</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -1622,7 +1629,7 @@
         <v>44373</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -1635,7 +1642,7 @@
         <v>44374</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -1648,7 +1655,7 @@
         <v>44375</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -1661,7 +1668,7 @@
         <v>44376</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -1674,7 +1681,7 @@
         <v>44377</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -1687,7 +1694,7 @@
         <v>44378</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -1700,7 +1707,7 @@
         <v>44379</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -1713,7 +1720,7 @@
         <v>44380</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -1726,7 +1733,7 @@
         <v>44381</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -1739,7 +1746,7 @@
         <v>44382</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -1752,7 +1759,7 @@
         <v>44383</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -1765,7 +1772,7 @@
         <v>44384</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -1778,7 +1785,7 @@
         <v>44385</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -1791,19 +1798,19 @@
         <v>44386</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,19 +1819,19 @@
         <v>44387</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,19 +1840,19 @@
         <v>44388</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,19 +1861,19 @@
         <v>44389</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,19 +1882,19 @@
         <v>44390</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,19 +1903,19 @@
         <v>44391</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,19 +1924,19 @@
         <v>44392</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,19 +1945,19 @@
         <v>44393</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,19 +1966,19 @@
         <v>44394</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,19 +1987,19 @@
         <v>44395</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,19 +2008,19 @@
         <v>44396</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,19 +2029,19 @@
         <v>44397</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,19 +2050,19 @@
         <v>44398</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,19 +2071,19 @@
         <v>44399</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="F114" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,19 +2092,19 @@
         <v>44400</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="F115" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,19 +2113,19 @@
         <v>44401</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="F116" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,19 +2134,19 @@
         <v>44402</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="F117" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,19 +2155,19 @@
         <v>44403</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,19 +2176,19 @@
         <v>44404</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,19 +2197,19 @@
         <v>44405</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,19 +2218,19 @@
         <v>44406</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,19 +2239,19 @@
         <v>44407</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,19 +2260,19 @@
         <v>44408</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,19 +2281,19 @@
         <v>44409</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,19 +2302,19 @@
         <v>44410</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,19 +2323,19 @@
         <v>44411</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,19 +2344,19 @@
         <v>44412</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,19 +2365,19 @@
         <v>44413</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F128" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,19 +2386,19 @@
         <v>44414</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F129" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,19 +2407,19 @@
         <v>44415</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F130" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,19 +2428,19 @@
         <v>44416</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F131" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,16 +2449,16 @@
         <v>44417</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,16 +2467,16 @@
         <v>44418</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,16 +2485,16 @@
         <v>44419</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,16 +2503,16 @@
         <v>44420</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,16 +2521,16 @@
         <v>44421</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,16 +2539,16 @@
         <v>44422</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,16 +2557,16 @@
         <v>44423</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,16 +2575,16 @@
         <v>44424</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,16 +2593,16 @@
         <v>44425</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,16 +2611,16 @@
         <v>44426</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,16 +2629,16 @@
         <v>44427</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,16 +2647,16 @@
         <v>44428</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,16 +2665,16 @@
         <v>44429</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,16 +2683,16 @@
         <v>44430</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,16 +2701,16 @@
         <v>44431</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,16 +2719,16 @@
         <v>44432</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,16 +2737,16 @@
         <v>44433</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,16 +2755,16 @@
         <v>44434</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,16 +2773,16 @@
         <v>44435</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,16 +2791,16 @@
         <v>44436</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,16 +2809,16 @@
         <v>44437</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,16 +2827,16 @@
         <v>44438</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,16 +2845,16 @@
         <v>44439</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,16 +2863,16 @@
         <v>44440</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,16 +2881,16 @@
         <v>44441</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,16 +2899,16 @@
         <v>44442</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,16 +2917,16 @@
         <v>44443</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,16 +2935,16 @@
         <v>44444</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,16 +2953,16 @@
         <v>44445</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,16 +2971,16 @@
         <v>44446</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,16 +2989,16 @@
         <v>44447</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,16 +3007,16 @@
         <v>44448</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,16 +3025,16 @@
         <v>44449</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,16 +3043,16 @@
         <v>44450</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,16 +3061,16 @@
         <v>44451</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,16 +3079,16 @@
         <v>44452</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,16 +3097,16 @@
         <v>44453</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,16 +3115,16 @@
         <v>44454</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,17 +3133,17 @@
         <v>44455</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C170" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,17 +3152,17 @@
         <v>44456</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C171" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,17 +3171,17 @@
         <v>44457</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,17 +3190,17 @@
         <v>44458</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,17 +3209,17 @@
         <v>44459</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,17 +3228,17 @@
         <v>44460</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,16 +3247,16 @@
         <v>44461</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D176" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F176" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,16 +3265,16 @@
         <v>44462</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D177" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F177" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,16 +3283,16 @@
         <v>44463</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D178" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F178" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,16 +3301,16 @@
         <v>44464</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D179" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F179" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,16 +3319,16 @@
         <v>44465</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D180" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F180" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,16 +3337,16 @@
         <v>44466</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D181" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F181" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,16 +3355,16 @@
         <v>44467</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D182" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F182" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,16 +3373,16 @@
         <v>44468</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D183" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F183" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,16 +3391,16 @@
         <v>44469</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D184" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F184" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
